--- a/biology/Histoire de la zoologie et de la botanique/Société_linnéenne_de_Normandie/Société_linnéenne_de_Normandie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_linnéenne_de_Normandie/Société_linnéenne_de_Normandie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_de_Normandie</t>
+          <t>Société_linnéenne_de_Normandie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société linnéenne de Normandie est une société savante faisant partie des nombreuses sociétés linnéennes ainsi nommées en référence au naturaliste suédois Carl von Linné (1707-1778).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_de_Normandie</t>
+          <t>Société_linnéenne_de_Normandie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée en 1823 par Jean Vincent Félix Lamouroux et Charles Thomine des Mazures sous le nom de « Société linnéenne du Calvados », celle-ci se renomme trois ans plus tard « Société linnéenne de Normandie ».
 La Société linnéenne de Normandie a publié les Mémoires de la Société linnéenne du Calvados de 1824 à 1825, les Mémoires de la Société linnéenne de Normandie de 1826, puis le Bulletin de la Société linnéenne de Normandie à partir de 1856.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_de_Normandie</t>
+          <t>Société_linnéenne_de_Normandie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_de_Normandie</t>
+          <t>Société_linnéenne_de_Normandie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ami Boué – Henri-Marie Ducrotay de Blainville – Léonce Élie de Beaumont – Charles Thomine des Mazures - Alexandre Brongniart – Jules Desnoyers – Alcide Dessalines d'Orbigny – Louis Isidore Duperrey – Jacques Marie Frangile Bigot – Jacques-Amand Eudes-Deslongchamps – Félix Archimède Pouchet – Gervais de La Rue – Charles François Antoine Morren – Émile Puillon Boblaye – Jean Pierre Sylvestre Grateloup – Jean Jacques Nicolas Huot - Jean-Victor Durand-Duquesnay - Arthur-Louis Letacq</t>
         </is>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_de_Normandie</t>
+          <t>Société_linnéenne_de_Normandie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,7 +618,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bulletin de la Société linnéenne de Normandie.
 Mémoires de la Société linnéenne de Normandie.</t>
